--- a/11/1/4/Índice de ventas industrial 2000 a 2021 - Anual.xlsx
+++ b/11/1/4/Índice de ventas industrial 2000 a 2021 - Anual.xlsx
@@ -671,7 +671,7 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>101.46</v>
+        <v>101.44</v>
       </c>
     </row>
     <row r="22" spans="1:3">

--- a/11/1/4/Índice de ventas industrial 2000 a 2021 - Anual.xlsx
+++ b/11/1/4/Índice de ventas industrial 2000 a 2021 - Anual.xlsx
@@ -671,7 +671,7 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>101.44</v>
+        <v>101.47</v>
       </c>
     </row>
     <row r="22" spans="1:3">

--- a/11/1/4/Índice de ventas industrial 2000 a 2021 - Anual.xlsx
+++ b/11/1/4/Índice de ventas industrial 2000 a 2021 - Anual.xlsx
@@ -671,7 +671,7 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>101.47</v>
+        <v>101.46</v>
       </c>
     </row>
     <row r="22" spans="1:3">
